--- a/documentation/Book1.xlsx
+++ b/documentation/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReactJs\tiktok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReactJs\tiktok\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01FCBA3-8CDF-42BC-B51A-6DE0BC86CDE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1101D5C9-5DCF-44DA-A7F4-B3A8BEB22516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{F52B70D0-E6FF-4AE3-AC02-831A36674E1F}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="SSR và CSR" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="940">
   <si>
     <t>Enhance oject literial</t>
   </si>
@@ -849,16 +849,10 @@
     <t>tất cả các hook đều là hàm</t>
   </si>
   <si>
-    <t>đối số là : giá trị khởi tạo initState</t>
-  </si>
-  <si>
     <t>nó trả về 1 mảng 2 phần tử : phần tử 1 là state , phần tử 2 là 1 hàm để set lại state</t>
   </si>
   <si>
     <t>ví dụ: const dulieu [state,setState] = useState[giá trị init]</t>
-  </si>
-  <si>
-    <t>component sẽ được render lại khi setState gọi</t>
   </si>
   <si>
     <t>HTTP request là gì</t>
@@ -1261,12 +1255,1680 @@
   <si>
     <t>Lỗi ở server</t>
   </si>
+  <si>
+    <t xml:space="preserve">đối số là : giá trị khởi tạo initState chỉ chạy 1 lần nếu initstate là 1 callback thì nó cũng chỉ chạy 1 lần </t>
+  </si>
+  <si>
+    <t>this.setstate thì sử dụng merging</t>
+  </si>
+  <si>
+    <t>component sẽ được render lại khi setState gọi, setState sử dụng replacing thay vì merging do đó khi setState thì ta cần back up data bằng các […state old,giá trị update]</t>
+  </si>
+  <si>
+    <t>state khi dùng để sửa xóa phải backup nó ra bằng các […state]</t>
+  </si>
+  <si>
+    <t>Side effect những thứ tác động chạy ở bên ngoài component của mình</t>
+  </si>
+  <si>
+    <t>Gọi API</t>
+  </si>
+  <si>
+    <t>Tương tác DOM</t>
+  </si>
+  <si>
+    <t>setTImeout,interval</t>
+  </si>
+  <si>
+    <t>subscriptions</t>
+  </si>
+  <si>
+    <t>2 cái dưới thuộc nhóm cần clean up</t>
+  </si>
+  <si>
+    <t>2 cái trên là thuộc nhóm không cần clean up</t>
+  </si>
+  <si>
+    <t>useEffect() là hooks cơ bản hỗ trợ cho func để có thể sử dụng được các side effect</t>
+  </si>
+  <si>
+    <t>mỗi hook gồm 2 thành phần:</t>
+  </si>
+  <si>
+    <t>1 là side effect</t>
+  </si>
+  <si>
+    <t>2 là clean up(có thẻ có hoặc không)</t>
+  </si>
+  <si>
+    <t>hook này được thực thi sau mỗi lần render</t>
+  </si>
+  <si>
+    <t>Tuy nhiên hook này có dependentce nên lần render tiếp nếu dependenci thay đổi</t>
+  </si>
+  <si>
+    <t>Dependenci là 1 mảng rỗng nó có các TH như sau</t>
+  </si>
+  <si>
+    <t>Quy trình hoạt động :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">render -&gt; chạy useEffect -&gt; </t>
+  </si>
+  <si>
+    <t>render-&gt;run useEFF cleanup nếu depen update</t>
+  </si>
+  <si>
+    <t>run useEff nếu depen update</t>
+  </si>
+  <si>
+    <t>run useEFF cleanup</t>
+  </si>
+  <si>
+    <t>Depen không được khai báo</t>
+  </si>
+  <si>
+    <t>Depen là 1 mảng rỗng</t>
+  </si>
+  <si>
+    <t>useEffect sẽ chỉ chạy 1 lần</t>
+  </si>
+  <si>
+    <t>Depen là 1 có dữ liệu</t>
+  </si>
+  <si>
+    <t>lần đầu tiên vẫn chạy</t>
+  </si>
+  <si>
+    <t>luôn luôn chạy sau mỗi lần render</t>
+  </si>
+  <si>
+    <t>nếu depen thay đổi thì nó mới chạy lại</t>
+  </si>
+  <si>
+    <t>Trong 1 func có thể dùng nhiều useEff</t>
+  </si>
+  <si>
+    <t>Custoomhook</t>
+  </si>
+  <si>
+    <t>laf hook do mình tự định nghĩa, là 1 function đặc biệt nó có thể sử dụng các hook khác</t>
+  </si>
+  <si>
+    <t>Cách đặt tên useXXXXX()</t>
+  </si>
+  <si>
+    <t>Cách sử dụng như các hook bình thường</t>
+  </si>
+  <si>
+    <t>Khi cấu hình thì sẽ tách riêng biệt được logic ra khỏi UI</t>
+  </si>
+  <si>
+    <t>Có thể chia sẻ cho các component khác</t>
+  </si>
+  <si>
+    <t>Custom thì return dữ liệu</t>
+  </si>
+  <si>
+    <t>Laf 1 hook tạo ra một call back memoried và nó chỉ tạo ra call back mới khi dependencies thay đổi</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Nhận vào 2 tham số là func và dependencies như useEffect</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Chỉ tạo ra 1 func mới nếu dependen thay đổi</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Dùng empty thì chỉ tạo ra 1 lần đầu . K tạo ra lần tiếp theo</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Tương tự như useCallback nhưng nó trả về 1 giá trị</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Tránh cho component render lại khi có nhiều state trong component</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Không nền sài useMemo và useCallback cho component</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Nên dùng cho khi render đồ thị, biểu đồ ,animations, những component nặng phần render</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Router</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Là một thư viện react-router-dom</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Phục vụ cho việc routing trong ReactJs</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Có các component trong router như sau</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>NavLink</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Router</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Route</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Redirect</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Component bao bọc tất cả các component khác của routing</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Gom nhóm các component chỉ render route đầu tiên tjai thời điểm đó</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Đi tới path tương ứng</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Giống như Link, nhưng có thêm activeClassName</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>BrowserRouter</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>HashRouter</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>StaticRouter</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>MemoryRouter</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Dùng cho testing</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Loại routing có dấu #</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Thường dùng cho SSR</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Sử dụng nhiều</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Render component khi math với path, định nghĩa path cho component, có bao nhiêu render hết</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <t>Chuyển h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớng từ dẫn này qua dẫn khác , sử dụng bên trong switch</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>useHistory</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>useLocation</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>useParams</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>useRouteMatch</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>trả về history instance , dùng để di chuyển qua trang khác</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>return location lấy thông tin của location hiện tại</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>return params lấy về thông tin path params</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>dùng làm nested routing</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Các hooks trong router</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Redux toolkit là một thư viện giúp mình viết redux tốt hơn , dễ hơn, đơn giản hơn</t>
+  </si>
+  <si>
+    <t>configureStore()</t>
+  </si>
+  <si>
+    <t>có sẵn Redux Devtool, redux-thunk để thực hiện async action</t>
+  </si>
+  <si>
+    <t>createReducer()</t>
+  </si>
+  <si>
+    <t>createSlice()</t>
+  </si>
+  <si>
+    <t>createAction()</t>
+  </si>
+  <si>
+    <t>Tích hợp cả Reducer và Action lại - thường dùng cái này</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thêm sửa xóa </t>
+  </si>
+  <si>
+    <t>tạo 1 mảng mới , … old arr , giá trị cần thêm để thêm vào cuối . Ngược lại là thêm vào đầu , thêm vào vị trí bất kì thì dùng slice(0,x),giá trị thêm, slice(x,end)</t>
+  </si>
+  <si>
+    <t>xóa theo tên thì fill mảng đó với điều kiện tên khác tên : color!=colorToremove tương tự với index</t>
+  </si>
+  <si>
+    <t>sửa thì tìm theo id . Xong sử dụng …color, id sửa: giá trị sửa - không update trực tiếp vì compo sẽ k re-render lại . Clone ra 1 mảng mới</t>
+  </si>
+  <si>
+    <t>## Module 01: Nhập môn lập trình web</t>
+  </si>
+  <si>
+    <t>- Lập trình web là gì? Thiết kế web là gì?</t>
+  </si>
+  <si>
+    <t>- Lộ trình học lập trình web Fullstack</t>
+  </si>
+  <si>
+    <t>- Phương pháp học lập trình hiệu quả</t>
+  </si>
+  <si>
+    <t>- Các công việc liên quan đến lập trình web</t>
+  </si>
+  <si>
+    <t>- Cơ chế hoạt động của website - trình duyệt (Request - Response)</t>
+  </si>
+  <si>
+    <t>## Module 02: Ngôn ngữ đánh dấu HTML</t>
+  </si>
+  <si>
+    <t>- Giới thiệu về ngôn ngữ HTML</t>
+  </si>
+  <si>
+    <t>- Cấu trúc trang HTML, cấu trúc thẻ HTML, cách học và nhớ các thẻ HTML</t>
+  </si>
+  <si>
+    <t>- Các loại thẻ HTML, các nhóm thẻ HTML</t>
+  </si>
+  <si>
+    <t>- Các thẻ HTML hay dùng trong nhóm Block</t>
+  </si>
+  <si>
+    <t>- Các thẻ HTML hay dùng trong nhóm Inline</t>
+  </si>
+  <si>
+    <t>- Các thẻ HTML5 hay dùng và cấu trúc chuẩn trang HTML5</t>
+  </si>
+  <si>
+    <t>- Cách đặt tên class, id trong HTML. Khi nào nên dùng id, class?</t>
+  </si>
+  <si>
+    <t>- Quy tắc đặt tên class BEM</t>
+  </si>
+  <si>
+    <t>## Module 3: Ngôn ngữ định dạng CSS</t>
+  </si>
+  <si>
+    <t>### Nhập môn CSS</t>
+  </si>
+  <si>
+    <t>- Giới thiệu ngôn ngữ định dạng CSS</t>
+  </si>
+  <si>
+    <t>- Cách học CSS hiệu quả</t>
+  </si>
+  <si>
+    <t>- 3 cách tích hợp CSS vào trang web</t>
+  </si>
+  <si>
+    <t>- Bộ chọn CSS (CSS Selector) từ cơ bản đến nâng cao</t>
+  </si>
+  <si>
+    <t>- Pseudo Elements</t>
+  </si>
+  <si>
+    <t>- Pseudo Classes</t>
+  </si>
+  <si>
+    <t>- Các đơn vị thường dùng trong CSS</t>
+  </si>
+  <si>
+    <t>### CSS cơ bản</t>
+  </si>
+  <si>
+    <t>- Các thuộc tính định dạng văn bản</t>
+  </si>
+  <si>
+    <t>- Thuộc tính background</t>
+  </si>
+  <si>
+    <t>- Thuộc tính border</t>
+  </si>
+  <si>
+    <t>- Thuộc tính kích thước: width, height, min-width, min-height, max-width, max-height</t>
+  </si>
+  <si>
+    <t>- Thuộc tính căn chỉnh văn bản: text-align</t>
+  </si>
+  <si>
+    <t>- Thuộc tính overflow và ứng dụng</t>
+  </si>
+  <si>
+    <t>- Thuộc tính opacity, filter</t>
+  </si>
+  <si>
+    <t>- Thuộc tính padding, margin</t>
+  </si>
+  <si>
+    <t>- Box Model CSS</t>
+  </si>
+  <si>
+    <t>- Chồng chéo CSS và thứ tự ưu tiên</t>
+  </si>
+  <si>
+    <t>- Reset CSS? Tại sao phải Reset CSS</t>
+  </si>
+  <si>
+    <t>- Kỹ thuật chia layout với Float, Clear</t>
+  </si>
+  <si>
+    <t>- Thuộc tính display và các tình huống nâng cao</t>
+  </si>
+  <si>
+    <t>- Thuộc tính position và các kỹ thuật xử lý nâng cao</t>
+  </si>
+  <si>
+    <t>- Định dạng danh sách (List Style)</t>
+  </si>
+  <si>
+    <t>- Nguyên tắc kế thừa trong CSS</t>
+  </si>
+  <si>
+    <t>- Kỹ thuật CSS Sprites</t>
+  </si>
+  <si>
+    <t>- Sử dụng thư viện Font Icon (Font-Awesome) và các kỹ thuật liên quan</t>
+  </si>
+  <si>
+    <t>- Sử dụng biến trong CSS: Biến toàn cục, biến cục bộ</t>
+  </si>
+  <si>
+    <t>- Thực hành xây dựng menu đa cấp</t>
+  </si>
+  <si>
+    <t>- Tạo bộ đếm (Counter) và ứng dụng thực tế</t>
+  </si>
+  <si>
+    <t>- Tính toán và đổi kích thước, đơn vị với hàm calc()</t>
+  </si>
+  <si>
+    <t>- Đổ bóng khối, văn bản với thuộc tính box-shadow, text-shadow</t>
+  </si>
+  <si>
+    <t>- CSS Prefixer và hướng dẫn thêm Prefixer tự động</t>
+  </si>
+  <si>
+    <t>### CSS nâng cao</t>
+  </si>
+  <si>
+    <t>- Cách sử dụng background gradient</t>
+  </si>
+  <si>
+    <t>- Xây dựng hiệu ứng với thuộc tính transition</t>
+  </si>
+  <si>
+    <t>- Case Study: Xây dựng các hiệu ứng phổ biến trong trang web hiện nay</t>
+  </si>
+  <si>
+    <t>- Thuộc tính transform và ứng dụng trong thực tế</t>
+  </si>
+  <si>
+    <t>- Case Study: Áp dụng Transition và Transform để xây dựng hiệu ứng</t>
+  </si>
+  <si>
+    <t>- Kỹ thuật chia layout với Flexbox</t>
+  </si>
+  <si>
+    <t>- Thực hành xây dựng chia layout với Flexbox</t>
+  </si>
+  <si>
+    <t>- Kỹ thuật chia layout phức tạp với Grid</t>
+  </si>
+  <si>
+    <t>- Thực hành xây dựng chia layout với Grid</t>
+  </si>
+  <si>
+    <t>- Xây dựng hiệu ứng chuyên nghiệp với animation, @keyframes</t>
+  </si>
+  <si>
+    <t>- Case Study: Xây dựng hiệu ứng với animation và @keyframes</t>
+  </si>
+  <si>
+    <t>- Sử dụng thư viện animate.style để tạo hiệu ứng cho trang web</t>
+  </si>
+  <si>
+    <t>### Responsive Web Design:</t>
+  </si>
+  <si>
+    <t>- Tổng quan về Responsive</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu các khái niệm: Breakpoint, Media Query,...</t>
+  </si>
+  <si>
+    <t>- Cách phân tích Breakpoint, viết Media Query hiệu quả</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về Desktop First, Mobile First. Khi nào nên dùng?</t>
+  </si>
+  <si>
+    <t>- Case Study: Xây dựng hệ thống lưới (Grid System) để chia layout nhanh</t>
+  </si>
+  <si>
+    <t>## Module 4: Ngôn ngữ SCSS</t>
+  </si>
+  <si>
+    <t>- Giới thiệu về ngôn ngữ tiền xử lý</t>
+  </si>
+  <si>
+    <t>- Các ngôn ngữ tiền xử lý phổ biến hiện nay</t>
+  </si>
+  <si>
+    <t>- Tại sao nên chọn SCSS cho dự án Front-End?</t>
+  </si>
+  <si>
+    <t>- Cách làm việc với SCSS</t>
+  </si>
+  <si>
+    <t>- Cài đặt SCSS và các cách biên dịch SCSS sang CSS</t>
+  </si>
+  <si>
+    <t>- Cú pháp SCSS</t>
+  </si>
+  <si>
+    <t>- Biến trong SCSS</t>
+  </si>
+  <si>
+    <t>- Toán tử trong SCSS</t>
+  </si>
+  <si>
+    <t>- Phân cấp trong SCSS</t>
+  </si>
+  <si>
+    <t>- Các cách kế thừa trong SCSS: extends, mixin, placeholder,...</t>
+  </si>
+  <si>
+    <t>- Functions trong SCSS</t>
+  </si>
+  <si>
+    <t>- Câu lệnh rẽ nhánh: @if @else</t>
+  </si>
+  <si>
+    <t>- Vòng lặp: @for, @while, @each</t>
+  </si>
+  <si>
+    <t>- Import, use, forward trong SCSS</t>
+  </si>
+  <si>
+    <t>- Kỹ thuật chia file, folder khi xây dựng dự án với SCSS</t>
+  </si>
+  <si>
+    <t>- Thực hành: Xây dựng Grid System bằng cách sử dụng SCSS</t>
+  </si>
+  <si>
+    <t>## Module 5: Xây dựng dự án Convert PSD sang HTML - CSS</t>
+  </si>
+  <si>
+    <t>- Bản chất công việc Convert Figma, Photoshop sang HTML CSS là gì?</t>
+  </si>
+  <si>
+    <t>- Phân tích dự án từ bản thiết kế: Figma, Photoshop</t>
+  </si>
+  <si>
+    <t>- Triển khai cấu trúc folder, file</t>
+  </si>
+  <si>
+    <t>- Xây dựng các thành phần core trong dự án</t>
+  </si>
+  <si>
+    <t>- Xây dựng các Section, Element cho dự án</t>
+  </si>
+  <si>
+    <t>- Xây dựng Responsive cho dự án</t>
+  </si>
+  <si>
+    <t>- Kiểm thử và tối ưu dự án</t>
+  </si>
+  <si>
+    <t>- Deploy dự án lên github pages</t>
+  </si>
+  <si>
+    <t>- Hướng dẫn trỏ tên miền riêng về github pages</t>
+  </si>
+  <si>
+    <t>## Module 6: Ngôn ngữ lập trình Javascript</t>
+  </si>
+  <si>
+    <t>- Giới thiệu tổng quan về Javascript. Tầm quan trọng của Javascript</t>
+  </si>
+  <si>
+    <t>- Phương pháp học lập trình Javascript hiệu quả</t>
+  </si>
+  <si>
+    <t>### Kiến thức cơ bản</t>
+  </si>
+  <si>
+    <t>- 3 cách tích hợp Javascript vào trang web</t>
+  </si>
+  <si>
+    <t>- Làm việc với biến trong Javascript</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về phạm vi trong Javascript</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu 1 số hàm hay dùng: alert(), confirm(), setTimeout(), setInterval()</t>
+  </si>
+  <si>
+    <t>- Toán tử và biểu thức</t>
+  </si>
+  <si>
+    <t>- Toán tử 3 ngôi</t>
+  </si>
+  <si>
+    <t>- Toán tử Nullish (??)</t>
+  </si>
+  <si>
+    <t>- Câu lệnh rẽ nhánh: if else, switch case</t>
+  </si>
+  <si>
+    <t>- Truthy và Falsy</t>
+  </si>
+  <si>
+    <t>- Định nghĩa hàm: Cú pháp, các loại hàm, callback, closure</t>
+  </si>
+  <si>
+    <t>- Giải thuật đệ quy trong lập trình</t>
+  </si>
+  <si>
+    <t>- Vòng lặp: for, while, do while</t>
+  </si>
+  <si>
+    <t>- Áp dụng lệnh break, continue</t>
+  </si>
+  <si>
+    <t>- Thực hành áp dụng các bài tập về vòng lặp</t>
+  </si>
+  <si>
+    <t>- Các kiểu dữ liệu trong Javascript</t>
+  </si>
+  <si>
+    <t>- Phân biệt sự khác nhau giữa Primitive và Reference Types</t>
+  </si>
+  <si>
+    <t>### Xử lý chuỗi (String)</t>
+  </si>
+  <si>
+    <t>- Tổng quan về xử lý chuỗi</t>
+  </si>
+  <si>
+    <t>- Nguyên tắc trong xử lý chuỗi</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu các thuộc tính và phương thức xử lý chuỗi</t>
+  </si>
+  <si>
+    <t>- Cách nhớ và phương pháp tra cứu các phương thức thông qua Dev Tools</t>
+  </si>
+  <si>
+    <t>- Thực hành làm bài tập xử lý chuỗi từ cơ bản đến nâng cao</t>
+  </si>
+  <si>
+    <t>- Case Study 01: Xây dựng chức năng tìm kiếm chuỗi trong đoạn văn bản (Có Highlight)</t>
+  </si>
+  <si>
+    <t>- Case Study 02: Xây dựng chức năng chữ chạy Karaoke</t>
+  </si>
+  <si>
+    <t>### Xử lý mảng (Array)</t>
+  </si>
+  <si>
+    <t>- Tổng quan về mảng, hiểu rõ hơn về Reference Types</t>
+  </si>
+  <si>
+    <t>- Các thao cơ bản với mảng: Khai báo, thêm, sửa, xóa</t>
+  </si>
+  <si>
+    <t>- Duyệt mảng với các vòng lặp: for, for in, for of</t>
+  </si>
+  <si>
+    <t>- Kiểm tra mảng: Biến thuộc kiểu mảng, độ dài mảng, ép kiểu mảng</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu các phương thức, thuộc tính xử lý mảng</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu các phương thức duyệt mảng: forEach, map, filter, find, findIndex, findLastIndex, every, some, reduce</t>
+  </si>
+  <si>
+    <t>- Tham chiếu trong Array và cách khắc phục tham chiếu</t>
+  </si>
+  <si>
+    <t>- Các bài tập xử lý mảng từ cơ bản đến nâng cao</t>
+  </si>
+  <si>
+    <t>### Xử lý đối tượng (Object)</t>
+  </si>
+  <si>
+    <t>- Tổng quan về Object và cách kiểm tra Object</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về thuộc tính và phương thức</t>
+  </si>
+  <si>
+    <t>- Các thao tác với Object: Khai báo, thêm, sửa, xóa</t>
+  </si>
+  <si>
+    <t>- 2 cách truy cập thuộc tính, phương thức</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu và phân biệt: Object literal, Function Constructor</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu các phương thức xử lý Object</t>
+  </si>
+  <si>
+    <t>- Toán tử optional chaining (?.) với thuộc tính và phương thức</t>
+  </si>
+  <si>
+    <t>- Sử dụng từ khóa this khi làm việc với Object</t>
+  </si>
+  <si>
+    <t>- Các dạng object trên thực tế: object lồng object, object lồng mảng, mảng lồng object</t>
+  </si>
+  <si>
+    <t>- Bài tập thực hành các dạng object (Có render giao diện)</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về Prototype và ứng dụng thực tế</t>
+  </si>
+  <si>
+    <t>- Prototype với Object literal và Function Constructor</t>
+  </si>
+  <si>
+    <t>- Tham chiếu trong Object và cách khắc phục</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về JSON và các thao tác</t>
+  </si>
+  <si>
+    <t>- Thực hành xây dựng Prototype với Array (Viết lại phương thức map())</t>
+  </si>
+  <si>
+    <t>### Xử lý kiểu số (Number)</t>
+  </si>
+  <si>
+    <t>- Tổng quan về Number và các vấn đề khi làm việc với Number</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về Infinity, NaN</t>
+  </si>
+  <si>
+    <t>- Các hàm xử lý Number và các tình huống thực tế</t>
+  </si>
+  <si>
+    <t>- Định dạng tiền tệ trong Number</t>
+  </si>
+  <si>
+    <t>### Xử lý thời gian (DateTime)</t>
+  </si>
+  <si>
+    <t>- Tổng quan về xử lý thời gian và các bài toán trên thực tế</t>
+  </si>
+  <si>
+    <t>- Các định dạng về thời gian: ISO, Long, Short,...</t>
+  </si>
+  <si>
+    <t>- Các cách khai báo đối tượng Date</t>
+  </si>
+  <si>
+    <t>- Các phương thức xử lý thời gian trong nhóm get</t>
+  </si>
+  <si>
+    <t>- Các phương thức xử lý thời gian trong nhóm set</t>
+  </si>
+  <si>
+    <t>- Case Study: Xây dựng Countdown Timer</t>
+  </si>
+  <si>
+    <t>### Event trong Javascript</t>
+  </si>
+  <si>
+    <t>- Tổng quan về Event trong Javascript</t>
+  </si>
+  <si>
+    <t>- Các Event phổ biến và tác dụng</t>
+  </si>
+  <si>
+    <t>- 3 cách thêm event vào html</t>
+  </si>
+  <si>
+    <t>### DOM trong Javascript</t>
+  </si>
+  <si>
+    <t>- Tổng quan về DOM trong Javascript</t>
+  </si>
+  <si>
+    <t>- Hiểu đúng các thao tác với DOM</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu các loại DOM</t>
+  </si>
+  <si>
+    <t>- 5 cách truy xuất tới Element (DOM Element)</t>
+  </si>
+  <si>
+    <t>- Các thao tác với DOM HTML</t>
+  </si>
+  <si>
+    <t>- Các thao tác với DOM CSS</t>
+  </si>
+  <si>
+    <t>- Các thao tác với class</t>
+  </si>
+  <si>
+    <t>- Các thao tác với DOM Navigation</t>
+  </si>
+  <si>
+    <t>- Các thao tác với DOM Nodes</t>
+  </si>
+  <si>
+    <t>- Làm việc với từ khóa this trong Event</t>
+  </si>
+  <si>
+    <t>- Event Object và các tình huống thực tế</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu phương thức e.preventDefault() và e.stopPropagation()</t>
+  </si>
+  <si>
+    <t>- Thực hành xây dựng các bài tập từ cơ bản đến nâng cao</t>
+  </si>
+  <si>
+    <t>- Xây dựng ứng dụng TodoList</t>
+  </si>
+  <si>
+    <t>### BOM trong Javascript</t>
+  </si>
+  <si>
+    <t>- Tổng quan về BOM trong Javascript</t>
+  </si>
+  <si>
+    <t>- Lấy kích thước trình duyệt</t>
+  </si>
+  <si>
+    <t>- Mở cửa sổ bằng window.open()</t>
+  </si>
+  <si>
+    <t>- Xử lý url với window.location</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về window.history</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu Cookie</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về BOM Navigator</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về Screen</t>
+  </si>
+  <si>
+    <t>- Thao tác với Search Param với URLSearchParams()</t>
+  </si>
+  <si>
+    <t>- Thực hành xây dựng Object thao tác với Cookie</t>
+  </si>
+  <si>
+    <t>- Thực hành xây dựng Routing cho Single Page</t>
+  </si>
+  <si>
+    <t>### Regular Expression</t>
+  </si>
+  <si>
+    <t>- Tổng quan về Regular Expression</t>
+  </si>
+  <si>
+    <t>- Các thao tác khi xử lý chuỗi với Regular Expression</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu các ký hiệu trong Regular Expression</t>
+  </si>
+  <si>
+    <t>- Kỹ thuật xử lý Regular Expression nâng cao</t>
+  </si>
+  <si>
+    <t>- Các bài tập thực hành: Validation, cắt chuỗi, nhận biết thay thế số điện thoại, email, url,....</t>
+  </si>
+  <si>
+    <t>- Thực hành: Thay đổi định dạng tiền tệ, kiểm tra mật khẩu mạnh yếu</t>
+  </si>
+  <si>
+    <t>- Nâng cấp Routing cho Single Page (Áp dụng param cho Url)</t>
+  </si>
+  <si>
+    <t>### Storage trong Javascript</t>
+  </si>
+  <si>
+    <t>- Tổng quan về Storage trong Javascript</t>
+  </si>
+  <si>
+    <t>- Khi nào dùng sessionStorage, localStorage</t>
+  </si>
+  <si>
+    <t>- Các thao tác với sessionStorage, localStorage</t>
+  </si>
+  <si>
+    <t>- Thực hành: Xây dựng chức năng giỏ hàng</t>
+  </si>
+  <si>
+    <t>### Strict Mode trong Javascript</t>
+  </si>
+  <si>
+    <t>- Tổng quan về Strict Mode</t>
+  </si>
+  <si>
+    <t>- Khi nào nên dùng Strict Mode</t>
+  </si>
+  <si>
+    <t>- Áp dụng Strict Mode với file, function</t>
+  </si>
+  <si>
+    <t>### Hoisting - Try Catch</t>
+  </si>
+  <si>
+    <t>- Tổng quan về Hoisting, hiểu đúng về Hoisting</t>
+  </si>
+  <si>
+    <t>- Tổng quan về try catch</t>
+  </si>
+  <si>
+    <t>- Eìm hiểu về throw Error</t>
+  </si>
+  <si>
+    <t>### Xử lý bất đồng bộ</t>
+  </si>
+  <si>
+    <t>- Xử lý với Callback Function</t>
+  </si>
+  <si>
+    <t>- Xử lý với Promise Object</t>
+  </si>
+  <si>
+    <t>- Xử lý với Async Await Function</t>
+  </si>
+  <si>
+    <t>### Fetch API</t>
+  </si>
+  <si>
+    <t>- Tổng quan về Fetch API</t>
+  </si>
+  <si>
+    <t>- Các thao tác với Fetch API</t>
+  </si>
+  <si>
+    <t>- Fake Server với thư viện JSON Server</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu các cách thao tác với API: XMLHttpRequest(), fetch(), thư viện axois,...</t>
+  </si>
+  <si>
+    <t>- Các thao tác với API: GET, POST, PUT, PATCH, DELETE</t>
+  </si>
+  <si>
+    <t>- Thực hành: Xây dựng ứng dụng TodoList với Fetch API</t>
+  </si>
+  <si>
+    <t>- Authentication và Authorization</t>
+  </si>
+  <si>
+    <t>- Thực hành xây dựng ứng dụng: Authentication và Authorization</t>
+  </si>
+  <si>
+    <t>### ES6</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về scope, khai báo biến với: let, const</t>
+  </si>
+  <si>
+    <t>- Default parameters</t>
+  </si>
+  <si>
+    <t>- Spread Operator</t>
+  </si>
+  <si>
+    <t>- Rest Parameters</t>
+  </si>
+  <si>
+    <t>- Destructuring</t>
+  </si>
+  <si>
+    <t>- Arrow function</t>
+  </si>
+  <si>
+    <t>- Classes</t>
+  </si>
+  <si>
+    <t>- Javascript Module: Export, Import</t>
+  </si>
+  <si>
+    <t>### Package và Module Bundler</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về cách quản lý package với npm và yarn</t>
+  </si>
+  <si>
+    <t>- Các thao tác thực tế khi làm việc với npm và yarn</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu 1 số thư viện hay dùng: lodash, moment,...</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu và cấu hình Webpack</t>
+  </si>
+  <si>
+    <t>- Thực hành: Xây dựng ứng dụng Single Page với Webpack và NPM</t>
+  </si>
+  <si>
+    <t>## Module 7: Thư viện React JS</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu cơ chế Client Sider Rendering (CSR) và Server Side Rendering (SSR)</t>
+  </si>
+  <si>
+    <t>- Tổng quan về thư viện React JS, cách học React JS hiệu quả</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về DOM ảo, cách hoạt động của DOM ảo</t>
+  </si>
+  <si>
+    <t>- Cài đặt React JS - Cấu trúc Folder React JS</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu cách Render HTML của React JS</t>
+  </si>
+  <si>
+    <t>- Cú pháp JSX</t>
+  </si>
+  <si>
+    <t>- Component, các loại Component</t>
+  </si>
+  <si>
+    <t>- Props và các kỹ thuật xử lý trong Props</t>
+  </si>
+  <si>
+    <t>- Render Props và ứng dụng thực tế</t>
+  </si>
+  <si>
+    <t>- Xử lý sự kiện trong React JS</t>
+  </si>
+  <si>
+    <t>- State trong React JS</t>
+  </si>
+  <si>
+    <t>- Xử lý Form trong React JS</t>
+  </si>
+  <si>
+    <t>- Vòng đời Component (Component Lifecycle)</t>
+  </si>
+  <si>
+    <t>- Fetch API trong React JS</t>
+  </si>
+  <si>
+    <t>- Ref trong React JS</t>
+  </si>
+  <si>
+    <t>- Context trong React JS</t>
+  </si>
+  <si>
+    <t>- Fragments trong React JS</t>
+  </si>
+  <si>
+    <t>- Higher Order Component (HOC)</t>
+  </si>
+  <si>
+    <t>- React Router DOM</t>
+  </si>
+  <si>
+    <t>- Tổng quan về Hook và cách học</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu các Hook phổ biến: useState, useEffect, useContext, useRef, useLayoutEffect, useReducer, useCallback, useMemo, useTransition, useDeferredValue, useId, useImperativeHandle</t>
+  </si>
+  <si>
+    <t>- Custom Hook</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về Redux: Redux Core, Redux Toolkit, Redux Thunk</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về assets trong React: image, fonts, css, scss, css module,...</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu Environment Variables trong React</t>
+  </si>
+  <si>
+    <t>- Build Production và Deployment</t>
+  </si>
+  <si>
+    <t>## Module 8: NextJS Framework</t>
+  </si>
+  <si>
+    <t>- Tổng quan về NextJS Framework, tại sao nên học</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về: SSG, SSR, CSR, ISR</t>
+  </si>
+  <si>
+    <t>- Cài đặt NextJS</t>
+  </si>
+  <si>
+    <t>- Phân tích cấu trúc Folder NextJS</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về Pages và Layout trong NextJS</t>
+  </si>
+  <si>
+    <t>- Dynamic Routing trong NextJS</t>
+  </si>
+  <si>
+    <t>- Passing Routing parameters</t>
+  </si>
+  <si>
+    <t>- Sử dụng Link Component để di chuyển giữa các trang</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về Static File</t>
+  </si>
+  <si>
+    <t>- Automatic Static Optimization</t>
+  </si>
+  <si>
+    <t>- Data Fetching</t>
+  </si>
+  <si>
+    <t>* Tìm hiểu getStaticProps</t>
+  </si>
+  <si>
+    <t>* Tìm hiểu getStaticPaths</t>
+  </si>
+  <si>
+    <t>* Tìm hiểu getServerSideProps</t>
+  </si>
+  <si>
+    <t>* Client-side Fetching</t>
+  </si>
+  <si>
+    <t>* Làm việc về ISR trong NextJS</t>
+  </si>
+  <si>
+    <t>- Authentication trong NextJS</t>
+  </si>
+  <si>
+    <t>- Xây dựng dự án web bán hàng sử dụng NextJS</t>
+  </si>
+  <si>
+    <t>## Module 9: NodeJS + ExpressJS</t>
+  </si>
+  <si>
+    <t>### Kiến thức NodeJS nền tảng</t>
+  </si>
+  <si>
+    <t>- Tổng quan về lập trình Back-end, cách back-end hoạt động</t>
+  </si>
+  <si>
+    <t>- Tổng quan về NodeJS</t>
+  </si>
+  <si>
+    <t>- Xây dựng ứng dụng NodeJS đầu tiên</t>
+  </si>
+  <si>
+    <t>- Sử dụng CommonJS và ES Module</t>
+  </si>
+  <si>
+    <t>- Xuất nội dung HTML, Json</t>
+  </si>
+  <si>
+    <t>- Đọc nội dung file HTML</t>
+  </si>
+  <si>
+    <t>- Sử dụng Nodemon</t>
+  </si>
+  <si>
+    <t>- Xử lý Routing trong NodeJS</t>
+  </si>
+  <si>
+    <t>- Http Get</t>
+  </si>
+  <si>
+    <t>- Http Post</t>
+  </si>
+  <si>
+    <t>- Xử lý form trong NodeJS</t>
+  </si>
+  <si>
+    <t>- Validate Form với NodeJS</t>
+  </si>
+  <si>
+    <t>- Upload File với NodeJS</t>
+  </si>
+  <si>
+    <t>- Session trong NodeJS</t>
+  </si>
+  <si>
+    <t>- Cookie trong NodeJS</t>
+  </si>
+  <si>
+    <t>### ExpressJS Framework</t>
+  </si>
+  <si>
+    <t>#### Kiến thức căn bản</t>
+  </si>
+  <si>
+    <t>- Tổng quan về ExpressJS Framework</t>
+  </si>
+  <si>
+    <t>- Cài đặt Express Generator</t>
+  </si>
+  <si>
+    <t>- Các thành phần của ExpressJS</t>
+  </si>
+  <si>
+    <t>- Cấu trúc Folder của Express Generator</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu Lifecycle Request</t>
+  </si>
+  <si>
+    <t>- Middleware ExpressJS: Global Middleware, Routing Middleware</t>
+  </si>
+  <si>
+    <t>- Tự xây dựng Middleware ExpressJS</t>
+  </si>
+  <si>
+    <t>- Routing ExpressJS và các kỹ thuật xử lý</t>
+  </si>
+  <si>
+    <t>- Request và Response trong ExpressJS</t>
+  </si>
+  <si>
+    <t>- Render giao diện trong ExpressJS</t>
+  </si>
+  <si>
+    <t>- Xây dựng trang Error</t>
+  </si>
+  <si>
+    <t>#### Mô hình MVC</t>
+  </si>
+  <si>
+    <t>- Tổng quan về mô hình MVC</t>
+  </si>
+  <si>
+    <t>- Làm việc với Controller (C)</t>
+  </si>
+  <si>
+    <t>* Cách xây dựng Controller</t>
+  </si>
+  <si>
+    <t>* Cách tổ chức Action</t>
+  </si>
+  <si>
+    <t>* Phân chia nhóm Controller</t>
+  </si>
+  <si>
+    <t>- Làm việc với View (V)</t>
+  </si>
+  <si>
+    <t>* Phân chia view hiệu quả</t>
+  </si>
+  <si>
+    <t>* Gửi và nhận dữ liệu từ Controller sang View</t>
+  </si>
+  <si>
+    <t>* Cú pháp trong Template Engine Ejs</t>
+  </si>
+  <si>
+    <t>* Giới thiệu Master Layout Ejs</t>
+  </si>
+  <si>
+    <t>* Xây dựng giao diện theo Master Layout</t>
+  </si>
+  <si>
+    <t>- Làm việc với Model (M)</t>
+  </si>
+  <si>
+    <t>* Tư duy xây dựng Model đúng</t>
+  </si>
+  <si>
+    <t>* Demo xây dựng Controller - Model - View với dữ liệu Fake</t>
+  </si>
+  <si>
+    <t>### Cơ sở dữ liệu (MySQL)</t>
+  </si>
+  <si>
+    <t>- Tổng quan về CSDL và các loại CSDL</t>
+  </si>
+  <si>
+    <t>- Phần mềm và công cụ cần chuẩn bị</t>
+  </si>
+  <si>
+    <t>- Kiến thức SQL - Thao tác với Database</t>
+  </si>
+  <si>
+    <t>- Kiến thức SQL - Các kiểu dữ liệu trong SQL</t>
+  </si>
+  <si>
+    <t>- Kiến thức SQL - Tạo bảng</t>
+  </si>
+  <si>
+    <t>- Kiến thức SQL - Thêm, sửa, xóa dữ liệu</t>
+  </si>
+  <si>
+    <t>- Kiến thức SQl - Thiết lập các ràng buộc</t>
+  </si>
+  <si>
+    <t>- Kiến thức SQL - Truy vấn dữ liệu</t>
+  </si>
+  <si>
+    <t>- Kiến thức SQl - Join Table</t>
+  </si>
+  <si>
+    <t>- Kiến thức SQL - SubQuery</t>
+  </si>
+  <si>
+    <t>- Kiến thức SQL - Import và Export Database</t>
+  </si>
+  <si>
+    <t>- Thiết kế Database bằng công cụ: phpmyadmin, navicat,...</t>
+  </si>
+  <si>
+    <t>- Thực hành: Xây dựng Database Web bán hàng</t>
+  </si>
+  <si>
+    <t>### Thao tác NodeJS với MySQL</t>
+  </si>
+  <si>
+    <t>- Xây dựng file config để lưu các cấu hình</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về file .env và cách sử dụng</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về sequelize và sequelize-cli</t>
+  </si>
+  <si>
+    <t>- Kết nối Database với Sequelize ORM</t>
+  </si>
+  <si>
+    <t>- Tạo Model với Sequelize và các kỹ thuật</t>
+  </si>
+  <si>
+    <t>- Thao tác với cấu trúc bảng sử dụng Sequelize</t>
+  </si>
+  <si>
+    <t>- Migrate thông qua sequelize-cli</t>
+  </si>
+  <si>
+    <t>- Các kỹ thuật khi thao tác với Migrate</t>
+  </si>
+  <si>
+    <t>- Tư duy xây dựng Migrate hiệu quả để làm việc team</t>
+  </si>
+  <si>
+    <t>- Sequelize Relationship: HasOne, BelongsTo, HasMany, BelongsToMany</t>
+  </si>
+  <si>
+    <t>- Các thao tác với dữ liệu: thêm, sửa, xóa, truy vấn</t>
+  </si>
+  <si>
+    <t>- Các kỹ thuật nâng cao khi thao tác với dữ liệu trong Sequelize</t>
+  </si>
+  <si>
+    <t>### Mail trong NodeJS (nodemailer)</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu các tình huống với email trong NodeJS</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu package nodemailer</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu SMTP, cách lấy thông tin SMTP của gmail</t>
+  </si>
+  <si>
+    <t>- Thiết lập cấu hình SMTP trong file config</t>
+  </si>
+  <si>
+    <t>- Thao tác gửi email với nodemailer</t>
+  </si>
+  <si>
+    <t>- Thao tác với Template Email</t>
+  </si>
+  <si>
+    <t>- Làm việc với Notication Email với package có sẵn</t>
+  </si>
+  <si>
+    <t>### Authentication với NodeJS</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu Passport.js</t>
+  </si>
+  <si>
+    <t>- Cấu hình sử dụng Passport.js</t>
+  </si>
+  <si>
+    <t>- Xây dựng chức năng Login sử dụng Passport.js</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu các Middleware trong Passport.js</t>
+  </si>
+  <si>
+    <t>- Xây dựng chức năng đăng xuất</t>
+  </si>
+  <si>
+    <t>- Kiểm tra trạng thái đăng nhập</t>
+  </si>
+  <si>
+    <t>- Tích hợp đăng nhập mạng xã hội</t>
+  </si>
+  <si>
+    <t>- Thực hành xây dựng ứng dụng Authentication hoàn chỉnh</t>
+  </si>
+  <si>
+    <t>### Phân quyền người dùng trong NodeJS</t>
+  </si>
+  <si>
+    <t>- Tổng quan về phân quyền người dùng</t>
+  </si>
+  <si>
+    <t>- Mối quan hệ giữa phân quyền và xác thực người dùng</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về Access Control List(ACL)</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về mô hình Role Based Access Control(RBAC)</t>
+  </si>
+  <si>
+    <t>- Phân quyền vai trò với package node_acl</t>
+  </si>
+  <si>
+    <t>- Xây dựng Middleware cho các Route</t>
+  </si>
+  <si>
+    <t>- Tư duy phân tích Database phân quyền động</t>
+  </si>
+  <si>
+    <t>- Thực hành xây dựng ứng dụng phân quyền hoàn chỉnh</t>
+  </si>
+  <si>
+    <t>### Xử lý hàng đợi (Queue) trong NodeJS</t>
+  </si>
+  <si>
+    <t>- Tổng quan về Queue và các tình huồng cần sử dụng Queue</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về Kue và các tính năng</t>
+  </si>
+  <si>
+    <t>- Cài đặt Redis và Kue</t>
+  </si>
+  <si>
+    <t>- Tạo worker job</t>
+  </si>
+  <si>
+    <t>- Quản lý các jobs</t>
+  </si>
+  <si>
+    <t>- Thực hành xây dựng chức năng gửi email hàng loạt sử dụng Queue</t>
+  </si>
+  <si>
+    <t>- Xử lý job scheduling, cronjob trong NodeJS</t>
+  </si>
+  <si>
+    <t>### Cache trong NodeJS</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về Redis</t>
+  </si>
+  <si>
+    <t>- Cách sử dụng Redis trong thực tế</t>
+  </si>
+  <si>
+    <t>- Cache dữ liệu với Redis trong NodeJS</t>
+  </si>
+  <si>
+    <t>### RESTFul API với NodeJS</t>
+  </si>
+  <si>
+    <t>- Tổng quan về API và Restful API</t>
+  </si>
+  <si>
+    <t>- Các nguyên tắc khi thiết kế RestFul API</t>
+  </si>
+  <si>
+    <t>- Xây dựng RESTFul API hoàn chỉnh với tình huống thực tế</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về CORS</t>
+  </si>
+  <si>
+    <t>- Passing CORS khi sử dụng API cho Client</t>
+  </si>
+  <si>
+    <t>### RESTFul API Authentication và Authorization với NodeJS</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về cookie-based authentication vs token-based authentication</t>
+  </si>
+  <si>
+    <t>- Tại sao nên dùng Token-based?</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu JWT, cách JWT hoạt động</t>
+  </si>
+  <si>
+    <t>- Tại sao phải quản lý expire trong accessToken</t>
+  </si>
+  <si>
+    <t>- Sự khác nhau của accessToken và refreshToken</t>
+  </si>
+  <si>
+    <t>- Đặt expire accessToken và refreshToken như thế nào là hợp lý?</t>
+  </si>
+  <si>
+    <t>- Xác thực API với Authorization Bearer</t>
+  </si>
+  <si>
+    <t>- Xây dựng Authentication - Authorization API hoàn chỉnh</t>
+  </si>
+  <si>
+    <t>### OAuth 2.0 trong NodeJS</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về OAuth 2.0 Server và tình huống trên thực tế</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về node-oauth2-server</t>
+  </si>
+  <si>
+    <t>- Xây dựng CSDL cho OAuth</t>
+  </si>
+  <si>
+    <t>- Xây dựng Route và OAuth 2.0 service</t>
+  </si>
+  <si>
+    <t>- Xây dựng ứng dụng thực tế sử dụng OAuth 2.0</t>
+  </si>
+  <si>
+    <t>### MVCS Architecture - Repository Pattern</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về kiến trúc MVCS</t>
+  </si>
+  <si>
+    <t>- Cách triển khai kiến trúc MVCS trong thực tế</t>
+  </si>
+  <si>
+    <t>- Nâng cấp mô hình MVC lên MVCS</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về Repository Pattern và tình huống trong thực tế</t>
+  </si>
+  <si>
+    <t>### Bảo mật và các hình thức tấn công</t>
+  </si>
+  <si>
+    <t>- XSS</t>
+  </si>
+  <si>
+    <t>- SQL Injection</t>
+  </si>
+  <si>
+    <t>- CSRF</t>
+  </si>
+  <si>
+    <t>- HTML Injection</t>
+  </si>
+  <si>
+    <t>- File Upload Attack</t>
+  </si>
+  <si>
+    <t>- .env attack</t>
+  </si>
+  <si>
+    <t>### Dự án cuối khóa</t>
+  </si>
+  <si>
+    <t>- Phân tích chức năng, yêu cầu</t>
+  </si>
+  <si>
+    <t>- Phân tích Database</t>
+  </si>
+  <si>
+    <t>- Xây dựng cấu trúc Folder, lựa chọn Architecture, Design Pattern</t>
+  </si>
+  <si>
+    <t>- Xây dựng các helpers</t>
+  </si>
+  <si>
+    <t>- Setup các thư viện, package cần thiết</t>
+  </si>
+  <si>
+    <t>- Setup các config</t>
+  </si>
+  <si>
+    <t>- Setup các biến môi trường</t>
+  </si>
+  <si>
+    <t>- Xây dựng các chức năng trong trang quản trị</t>
+  </si>
+  <si>
+    <t>- Xây dựng các chức năng trang dành cho người dùng</t>
+  </si>
+  <si>
+    <t>- Viết API để Client sử dụng và tạo Service cho bên thứ 3</t>
+  </si>
+  <si>
+    <t>- Deploy dự án lên Render, VPS,...</t>
+  </si>
+  <si>
+    <t>### Kỹ năng làm việc với GIT</t>
+  </si>
+  <si>
+    <t>- Làm việc với GIT cơ bản</t>
+  </si>
+  <si>
+    <t>- Làm việc với Git Flow</t>
+  </si>
+  <si>
+    <t>- Thực hành thực tế và các tình huống xảy ra</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,8 +3007,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1377,8 +3069,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1528,12 +3226,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1579,6 +3305,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1873,13 +3617,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>512501</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>86398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1917,13 +3661,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>471731</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>57287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2354,201 +4098,2683 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E35CEB-B4AD-4B56-8030-EC90C383FBF2}">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D545"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21.75" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="41" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="43" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="43" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="43" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="43" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="43" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" thickBot="1">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="44" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" s="42"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="43" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="43" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="43" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="43" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="43" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="43" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="42"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" thickBot="1">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" s="44" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" s="42"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" s="45" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" s="42"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" s="43" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1">
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" s="43" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1">
       <c r="A27" s="3"/>
       <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" s="43" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1">
       <c r="A28" s="3"/>
       <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" s="43" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
+      <c r="D29" s="43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+      <c r="D30" s="43" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1">
+      <c r="D31" s="43" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1">
+      <c r="D32" s="42"/>
+    </row>
+    <row r="33" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D33" s="45" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D34" s="42"/>
+    </row>
+    <row r="35" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D35" s="43" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D36" s="43" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D37" s="43" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D38" s="43" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D39" s="43" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D40" s="43" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D41" s="43" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D42" s="43" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D43" s="43" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D44" s="43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D45" s="43" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D46" s="43" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D47" s="43" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D48" s="43" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D49" s="43" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D50" s="43" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D51" s="43" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D52" s="43" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D53" s="43" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D54" s="43" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D55" s="43" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D56" s="43" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D57" s="43" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D58" s="43" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D59" s="42"/>
+    </row>
+    <row r="60" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D60" s="45" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D61" s="42"/>
+    </row>
+    <row r="62" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D62" s="43" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D63" s="43" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D64" s="43" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D65" s="43" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D66" s="43" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D67" s="43" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D68" s="43" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D69" s="43" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D70" s="43" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D71" s="43" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D72" s="43" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D73" s="43" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D74" s="42"/>
+    </row>
+    <row r="75" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D75" s="45" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D76" s="42"/>
+    </row>
+    <row r="77" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D77" s="43" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D78" s="43" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D79" s="43" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D80" s="43" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D81" s="43" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D82" s="42"/>
+    </row>
+    <row r="83" spans="4:4" ht="18.75" thickBot="1">
+      <c r="D83" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D84" s="42"/>
+    </row>
+    <row r="85" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D85" s="43" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D86" s="43" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D87" s="43" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D88" s="43" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D89" s="43" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D90" s="43" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D91" s="43" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D92" s="43" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D93" s="43" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D94" s="43" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D95" s="43" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D96" s="43" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D97" s="43" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D98" s="43" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D99" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D100" s="43" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D101" s="42"/>
+    </row>
+    <row r="102" spans="4:4" ht="18.75" thickBot="1">
+      <c r="D102" s="44" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D103" s="42"/>
+    </row>
+    <row r="104" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D104" s="43" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D105" s="43" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D106" s="43" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D107" s="43" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D108" s="43" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D109" s="43" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D110" s="43" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D111" s="43" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D112" s="43" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D113" s="42"/>
+    </row>
+    <row r="114" spans="4:4" ht="18.75" thickBot="1">
+      <c r="D114" s="44" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D115" s="42"/>
+    </row>
+    <row r="116" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D116" s="43" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D117" s="43" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D118" s="42"/>
+    </row>
+    <row r="119" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D119" s="45" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D120" s="42"/>
+    </row>
+    <row r="121" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D121" s="43" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D122" s="43" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D123" s="43" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D124" s="43" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D125" s="43" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D126" s="43" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D127" s="43" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D128" s="43" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D129" s="43" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D130" s="43" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D131" s="43" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D132" s="43" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D133" s="43" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D134" s="43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D135" s="43" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D136" s="43" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D137" s="42"/>
+    </row>
+    <row r="138" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D138" s="45" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D139" s="42"/>
+    </row>
+    <row r="140" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D140" s="43" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D141" s="43" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D142" s="43" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D143" s="43" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D144" s="43" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D145" s="43" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D146" s="43" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D147" s="42"/>
+    </row>
+    <row r="148" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D148" s="45" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D149" s="42"/>
+    </row>
+    <row r="150" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D150" s="43" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D151" s="43" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D152" s="43" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D153" s="43" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D154" s="43" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D155" s="43" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D156" s="43" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D157" s="43" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D158" s="42"/>
+    </row>
+    <row r="159" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D159" s="45" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D160" s="42"/>
+    </row>
+    <row r="161" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D161" s="43" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D162" s="43" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D163" s="43" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D164" s="43" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D165" s="43" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D166" s="43" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D167" s="43" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D168" s="43" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D169" s="43" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D170" s="43" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D171" s="43" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D172" s="43" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D173" s="43" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D174" s="43" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D175" s="43" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D176" s="42"/>
+    </row>
+    <row r="177" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D177" s="45" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D178" s="42"/>
+    </row>
+    <row r="179" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D179" s="43" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D180" s="43" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D181" s="43" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D182" s="43" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D183" s="42"/>
+    </row>
+    <row r="184" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D184" s="45" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D185" s="42"/>
+    </row>
+    <row r="186" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D186" s="43" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D187" s="43" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D188" s="43" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D189" s="43" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D190" s="43" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D191" s="43" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D192" s="42"/>
+    </row>
+    <row r="193" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D193" s="45" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D194" s="42"/>
+    </row>
+    <row r="195" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D195" s="43" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D196" s="43" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D197" s="43" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D198" s="42"/>
+    </row>
+    <row r="199" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D199" s="45" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D200" s="42"/>
+    </row>
+    <row r="201" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D201" s="43" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D202" s="43" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D203" s="43" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D204" s="43" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D205" s="43" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D206" s="43" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D207" s="43" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D208" s="43" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D209" s="43" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D210" s="43" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D211" s="43" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D212" s="43" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D213" s="43" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D214" s="43" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D215" s="42"/>
+    </row>
+    <row r="216" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D216" s="45" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D217" s="42"/>
+    </row>
+    <row r="218" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D218" s="43" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D219" s="43" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D220" s="43" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D221" s="43" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D222" s="43" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D223" s="43" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D224" s="43" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D225" s="43" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D226" s="43" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D227" s="43" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D228" s="43" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D229" s="42"/>
+    </row>
+    <row r="230" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D230" s="45" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D231" s="42"/>
+    </row>
+    <row r="232" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D232" s="43" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D233" s="43" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D234" s="43" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D235" s="43" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D236" s="43" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="237" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D237" s="43" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D238" s="43" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D239" s="42"/>
+    </row>
+    <row r="240" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D240" s="45" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D241" s="42"/>
+    </row>
+    <row r="242" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D242" s="43" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D243" s="43" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D244" s="43" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D245" s="43" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="246" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D246" s="42"/>
+    </row>
+    <row r="247" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D247" s="45" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="248" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D248" s="42"/>
+    </row>
+    <row r="249" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D249" s="43" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="250" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D250" s="43" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="251" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D251" s="43" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D252" s="42"/>
+    </row>
+    <row r="253" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D253" s="45" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D254" s="42"/>
+    </row>
+    <row r="255" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D255" s="43" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="256" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D256" s="43" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="257" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D257" s="43" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="258" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D258" s="42"/>
+    </row>
+    <row r="259" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D259" s="45" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="260" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D260" s="42"/>
+    </row>
+    <row r="261" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D261" s="43" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="262" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D262" s="43" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="263" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D263" s="43" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="264" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D264" s="42"/>
+    </row>
+    <row r="265" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D265" s="45" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="266" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D266" s="42"/>
+    </row>
+    <row r="267" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D267" s="43" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="268" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D268" s="43" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="269" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D269" s="43" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="270" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D270" s="43" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="271" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D271" s="43" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="272" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D272" s="43" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="273" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D273" s="43" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="274" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D274" s="43" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="275" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D275" s="42"/>
+    </row>
+    <row r="276" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D276" s="45" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="277" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D277" s="42"/>
+    </row>
+    <row r="278" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D278" s="43" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="279" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D279" s="43" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="280" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D280" s="43" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="281" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D281" s="43" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="282" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D282" s="43" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="283" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D283" s="43" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="284" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D284" s="43" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="285" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D285" s="43" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="286" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D286" s="42"/>
+    </row>
+    <row r="287" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D287" s="45" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="288" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D288" s="42"/>
+    </row>
+    <row r="289" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D289" s="43" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="290" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D290" s="43" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="291" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D291" s="43" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="292" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D292" s="43" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="293" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D293" s="43" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="294" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D294" s="42"/>
+    </row>
+    <row r="295" spans="4:4" ht="18.75" thickBot="1">
+      <c r="D295" s="44" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="296" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D296" s="42"/>
+    </row>
+    <row r="297" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D297" s="43" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="298" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D298" s="43" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="299" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D299" s="43" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="300" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D300" s="43" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="301" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D301" s="43" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="302" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D302" s="43" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="303" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D303" s="43" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="304" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D304" s="43" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="305" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D305" s="43" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="306" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D306" s="43" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="307" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D307" s="43" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="308" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D308" s="43" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="309" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D309" s="43" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="310" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D310" s="43" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="311" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D311" s="43" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="312" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D312" s="43" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="313" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D313" s="43" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="314" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D314" s="43" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="315" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D315" s="43" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="316" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D316" s="43" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="317" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D317" s="43" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="318" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D318" s="43" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="319" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D319" s="43" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="320" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D320" s="43" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="321" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D321" s="43" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D322" s="43" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="323" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D323" s="42"/>
+    </row>
+    <row r="324" spans="4:4" ht="18.75" thickBot="1">
+      <c r="D324" s="44" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="325" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D325" s="42"/>
+    </row>
+    <row r="326" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D326" s="43" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="327" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D327" s="43" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="328" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D328" s="43" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="329" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D329" s="43" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="330" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D330" s="43" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="331" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D331" s="43" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="332" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D332" s="43" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="333" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D333" s="43" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="334" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D334" s="43" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="335" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D335" s="43" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="336" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D336" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="337" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D337" s="42"/>
+    </row>
+    <row r="338" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D338" s="43" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D339" s="43" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D340" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D341" s="43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="342" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D342" s="43" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="343" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D343" s="42"/>
+    </row>
+    <row r="344" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D344" s="43" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="345" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D345" s="43" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="346" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D346" s="42"/>
+    </row>
+    <row r="347" spans="4:4" ht="18.75" thickBot="1">
+      <c r="D347" s="44" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="348" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D348" s="42"/>
+    </row>
+    <row r="349" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D349" s="43" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="350" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D350" s="42"/>
+    </row>
+    <row r="351" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D351" s="43" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="352" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D352" s="43" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="353" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D353" s="43" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="354" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D354" s="43" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="355" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D355" s="43" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="356" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D356" s="43" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="357" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D357" s="43" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="358" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D358" s="43" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="359" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D359" s="43" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="360" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D360" s="43" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="361" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D361" s="43" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="362" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D362" s="43" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="363" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D363" s="43" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="364" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D364" s="43" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="365" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D365" s="43" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="366" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D366" s="42"/>
+    </row>
+    <row r="367" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D367" s="45" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="368" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D368" s="42"/>
+    </row>
+    <row r="369" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D369" s="45" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="370" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D370" s="42"/>
+    </row>
+    <row r="371" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D371" s="43" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="372" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D372" s="43" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="373" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D373" s="43" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="374" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D374" s="43" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="375" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D375" s="43" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="376" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D376" s="43" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="377" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D377" s="43" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="378" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D378" s="43" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="379" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D379" s="43" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="380" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D380" s="43" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="381" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D381" s="43" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="382" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D382" s="42"/>
+    </row>
+    <row r="383" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D383" s="45" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="384" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D384" s="42"/>
+    </row>
+    <row r="385" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D385" s="43" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="386" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D386" s="43" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="387" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D387" s="42"/>
+    </row>
+    <row r="388" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D388" s="43" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="389" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D389" s="43" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="390" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D390" s="43" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="391" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D391" s="42"/>
+    </row>
+    <row r="392" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D392" s="43" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="393" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D393" s="42"/>
+    </row>
+    <row r="394" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D394" s="43" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="395" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D395" s="43" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="396" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D396" s="43" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="397" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D397" s="43" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="398" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D398" s="43" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="399" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D399" s="42"/>
+    </row>
+    <row r="400" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D400" s="43" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="401" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D401" s="42"/>
+    </row>
+    <row r="402" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D402" s="43" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="403" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D403" s="43" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="404" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D404" s="42"/>
+    </row>
+    <row r="405" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D405" s="45" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="406" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D406" s="42"/>
+    </row>
+    <row r="407" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D407" s="43" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="408" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D408" s="43" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="409" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D409" s="43" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="410" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D410" s="43" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="411" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D411" s="43" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="412" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D412" s="43" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="413" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D413" s="43" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="414" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D414" s="43" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="415" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D415" s="43" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="416" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D416" s="43" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="417" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D417" s="43" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="418" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D418" s="43" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="419" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D419" s="43" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="420" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D420" s="42"/>
+    </row>
+    <row r="421" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D421" s="45" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="422" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D422" s="42"/>
+    </row>
+    <row r="423" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D423" s="43" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="424" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D424" s="43" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="425" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D425" s="43" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="426" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D426" s="43" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="427" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D427" s="43" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="428" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D428" s="43" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="429" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D429" s="43" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="430" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D430" s="43" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="431" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D431" s="43" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="432" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D432" s="43" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="433" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D433" s="43" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="434" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D434" s="43" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="435" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D435" s="42"/>
+    </row>
+    <row r="436" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D436" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="437" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D437" s="42"/>
+    </row>
+    <row r="438" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D438" s="43" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="439" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D439" s="43" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="440" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D440" s="43" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="441" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D441" s="43" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="442" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D442" s="43" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="443" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D443" s="43" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="444" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D444" s="43" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="445" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D445" s="42"/>
+    </row>
+    <row r="446" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D446" s="45" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="447" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D447" s="42"/>
+    </row>
+    <row r="448" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D448" s="43" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="449" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D449" s="43" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="450" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D450" s="43" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="451" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D451" s="43" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="452" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D452" s="43" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="453" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D453" s="43" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="454" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D454" s="43" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="455" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D455" s="43" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="456" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D456" s="42"/>
+    </row>
+    <row r="457" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D457" s="45" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="458" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D458" s="42"/>
+    </row>
+    <row r="459" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D459" s="43" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="460" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D460" s="43" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="461" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D461" s="43" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="462" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D462" s="43" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="463" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D463" s="43" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="464" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D464" s="43" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="465" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D465" s="43" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="466" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D466" s="43" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="467" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D467" s="42"/>
+    </row>
+    <row r="468" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D468" s="45" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="469" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D469" s="42"/>
+    </row>
+    <row r="470" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D470" s="43" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="471" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D471" s="43" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="472" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D472" s="43" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="473" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D473" s="43" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="474" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D474" s="43" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="475" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D475" s="43" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="476" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D476" s="43" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="477" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D477" s="42"/>
+    </row>
+    <row r="478" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D478" s="45" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="479" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D479" s="42"/>
+    </row>
+    <row r="480" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D480" s="43" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="481" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D481" s="43" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="482" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D482" s="43" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="483" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D483" s="42"/>
+    </row>
+    <row r="484" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D484" s="45" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="485" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D485" s="42"/>
+    </row>
+    <row r="486" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D486" s="43" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="487" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D487" s="43" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="488" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D488" s="43" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="489" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D489" s="43" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="490" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D490" s="43" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="491" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D491" s="42"/>
+    </row>
+    <row r="492" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D492" s="45" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="493" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D493" s="42"/>
+    </row>
+    <row r="494" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D494" s="43" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="495" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D495" s="43" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="496" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D496" s="43" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="497" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D497" s="43" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="498" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D498" s="43" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="499" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D499" s="43" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="500" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D500" s="43" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="501" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D501" s="43" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="502" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D502" s="42"/>
+    </row>
+    <row r="503" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D503" s="45" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="504" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D504" s="42"/>
+    </row>
+    <row r="505" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D505" s="43" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="506" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D506" s="43" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="507" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D507" s="43" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="508" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D508" s="43" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="509" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D509" s="43" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="510" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D510" s="42"/>
+    </row>
+    <row r="511" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D511" s="45" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="512" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D512" s="42"/>
+    </row>
+    <row r="513" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D513" s="43" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="514" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D514" s="43" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="515" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D515" s="43" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="516" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D516" s="43" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="517" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D517" s="42"/>
+    </row>
+    <row r="518" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D518" s="45" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="519" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D519" s="42"/>
+    </row>
+    <row r="520" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D520" s="43" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="521" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D521" s="43" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="522" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D522" s="43" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="523" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D523" s="43" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="524" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D524" s="43" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="525" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D525" s="43" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="526" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D526" s="42"/>
+    </row>
+    <row r="527" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D527" s="45" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="528" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D528" s="42"/>
+    </row>
+    <row r="529" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D529" s="43" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="530" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D530" s="43" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="531" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D531" s="43" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="532" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D532" s="43" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="533" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D533" s="43" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="534" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D534" s="43" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="535" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D535" s="43" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="536" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D536" s="43" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="537" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D537" s="43" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="538" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D538" s="43" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="539" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D539" s="43" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="540" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D540" s="42"/>
+    </row>
+    <row r="541" spans="4:4" ht="16.5" thickBot="1">
+      <c r="D541" s="45" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="542" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D542" s="42"/>
+    </row>
+    <row r="543" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D543" s="43" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="544" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D544" s="43" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="545" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D545" s="43" t="s">
+        <v>939</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="'JS-ES6'!A1" xr:uid="{51812786-BA98-4362-9420-79F22129D00D}"/>
-    <hyperlink ref="B3" r:id="rId2" location="ReactJS!A1" xr:uid="{9A898D32-2EE5-4977-9A82-C7B4BDFC7E90}"/>
+    <hyperlink ref="B2" r:id="rId1" location="'JS-ES6'!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" location="ReactJS!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2185E8-7F78-4A7E-B614-1886F07EB29C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:P94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>491</v>
+      </c>
+      <c r="J2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2556,17 +6782,17 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="18.75">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -2576,17 +6802,17 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="M14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="M15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="M16" s="1" t="s">
         <v>20</v>
       </c>
@@ -2594,7 +6820,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="M17" s="1" t="s">
         <v>21</v>
       </c>
@@ -2602,12 +6828,12 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="H21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="18.75">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2615,7 +6841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2623,12 +6849,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="B25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
@@ -2638,49 +6864,49 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="18.75">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="18.75">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="B49" s="1" t="s">
         <v>36</v>
       </c>
@@ -2693,39 +6919,39 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="54" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="21">
       <c r="A54" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="B57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="B58" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="C59" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="C60" t="s">
         <v>105</v>
       </c>
@@ -2733,13 +6959,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="B61" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="C62" t="s">
         <v>108</v>
       </c>
@@ -2747,7 +6973,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="C63" t="s">
         <v>109</v>
       </c>
@@ -2755,7 +6981,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="C64" t="s">
         <v>116</v>
       </c>
@@ -2763,7 +6989,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="C65" t="s">
         <v>112</v>
       </c>
@@ -2771,7 +6997,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="C66" t="s">
         <v>114</v>
       </c>
@@ -2779,7 +7005,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="C67" t="s">
         <v>118</v>
       </c>
@@ -2787,12 +7013,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="D68" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="C69" t="s">
         <v>121</v>
       </c>
@@ -2800,7 +7026,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="21">
       <c r="A71" s="27" t="s">
         <v>123</v>
       </c>
@@ -2809,37 +7035,37 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="D72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="E73" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="E74" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="E75" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="E76" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="D77" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="E78" t="s">
         <v>131</v>
       </c>
@@ -2847,27 +7073,27 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="D79" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="E80" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="D81" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="D82" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="21">
       <c r="A84" s="27" t="s">
         <v>137</v>
       </c>
@@ -2876,23 +7102,23 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="D85" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="D86" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="C90" t="s">
         <v>143</v>
       </c>
@@ -2900,7 +7126,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="C91" t="s">
         <v>144</v>
       </c>
@@ -2908,13 +7134,14 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B94" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2922,20 +7149,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58449254-F20A-40EB-816D-1CE919B5BD7B}">
-  <dimension ref="A1:O139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="K91" sqref="K91"/>
+    <sheetView topLeftCell="D148" workbookViewId="0">
+      <selection activeCell="P164" sqref="P164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -2945,22 +7172,22 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="D2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="D3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -2968,12 +7195,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="D6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>157</v>
       </c>
@@ -2981,17 +7208,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="F8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -2999,22 +7226,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="10" t="s">
         <v>153</v>
       </c>
@@ -3025,22 +7252,22 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="G18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="G20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="G21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="10" t="s">
         <v>154</v>
       </c>
@@ -3051,12 +7278,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="G24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75">
       <c r="G25" s="28" t="s">
         <v>49</v>
       </c>
@@ -3067,7 +7294,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75">
       <c r="G26" s="28"/>
       <c r="H26" s="28" t="s">
         <v>48</v>
@@ -3076,7 +7303,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="E28" s="29" t="s">
         <v>174</v>
       </c>
@@ -3084,27 +7311,27 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="G29" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="G30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="G31" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="F32" s="30" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:9">
       <c r="E35" s="29" t="s">
         <v>180</v>
       </c>
@@ -3115,32 +7342,32 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:9">
       <c r="G36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:9">
       <c r="G37" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:9">
       <c r="G38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:9">
       <c r="G39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:9">
       <c r="G40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:9">
       <c r="E42" s="29" t="s">
         <v>184</v>
       </c>
@@ -3148,22 +7375,22 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:9">
       <c r="G43" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:9">
       <c r="G44" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:9">
       <c r="G45" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:9">
       <c r="F46" s="30" t="s">
         <v>189</v>
       </c>
@@ -3171,12 +7398,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:9">
       <c r="G47" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:9">
       <c r="G48" t="s">
         <v>192</v>
       </c>
@@ -3184,7 +7411,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:9">
       <c r="G49" s="31" t="s">
         <v>200</v>
       </c>
@@ -3192,12 +7419,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:9">
       <c r="I50" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:9">
       <c r="G51" s="31" t="s">
         <v>203</v>
       </c>
@@ -3205,12 +7432,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:9">
       <c r="I52" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:9">
       <c r="G53" s="31" t="s">
         <v>204</v>
       </c>
@@ -3218,27 +7445,27 @@
         <v>207</v>
       </c>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:9">
       <c r="I54" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:9">
       <c r="I55" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:9">
       <c r="I56" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:9">
       <c r="F57" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:9">
       <c r="F58" t="s">
         <v>195</v>
       </c>
@@ -3246,7 +7473,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:9">
       <c r="F59" s="30" t="s">
         <v>197</v>
       </c>
@@ -3254,7 +7481,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:9">
       <c r="E61" s="29" t="s">
         <v>211</v>
       </c>
@@ -3262,12 +7489,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:9">
       <c r="G62" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:9">
       <c r="F63" s="30" t="s">
         <v>214</v>
       </c>
@@ -3275,7 +7502,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:9">
       <c r="G64" s="31" t="s">
         <v>216</v>
       </c>
@@ -3283,7 +7510,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:12">
       <c r="G66" s="31" t="s">
         <v>217</v>
       </c>
@@ -3291,12 +7518,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:12">
       <c r="I67" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="68" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:12">
       <c r="I68" t="s">
         <v>222</v>
       </c>
@@ -3304,12 +7531,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:12">
       <c r="L69" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:12">
       <c r="I70" t="s">
         <v>223</v>
       </c>
@@ -3317,12 +7544,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:12">
       <c r="L71" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:12">
       <c r="G72" s="31" t="s">
         <v>218</v>
       </c>
@@ -3330,12 +7557,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:12">
       <c r="I73" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="74" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:12">
       <c r="I74" t="s">
         <v>231</v>
       </c>
@@ -3343,12 +7570,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:12">
       <c r="L75" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:12">
       <c r="I76" t="s">
         <v>233</v>
       </c>
@@ -3356,7 +7583,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:12">
       <c r="I77" t="s">
         <v>235</v>
       </c>
@@ -3364,7 +7591,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:12">
       <c r="G78" s="31" t="s">
         <v>219</v>
       </c>
@@ -3375,12 +7602,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:12">
       <c r="L79" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:10">
       <c r="E82" s="29" t="s">
         <v>252</v>
       </c>
@@ -3388,27 +7615,27 @@
         <v>253</v>
       </c>
     </row>
-    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:10">
       <c r="F83" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:10">
       <c r="F84" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:10">
       <c r="F85" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:10">
       <c r="F86" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10">
       <c r="F88" t="s">
         <v>267</v>
       </c>
@@ -3419,7 +7646,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:10">
       <c r="F89" t="s">
         <v>271</v>
       </c>
@@ -3427,207 +7654,613 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:10">
       <c r="J90" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="91" spans="5:10">
+      <c r="J91" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="J91" t="s">
+    <row r="92" spans="5:10">
+      <c r="J92" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="J92" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:10">
       <c r="J93" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H99" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="94" spans="5:10">
+      <c r="J94" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="95" spans="5:10">
+      <c r="J95" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="97" spans="8:20">
+      <c r="H97" s="31" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H100" t="s">
+      <c r="J97" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="98" spans="8:20">
+      <c r="K98" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="99" spans="8:20">
+      <c r="K99" t="s">
+        <v>411</v>
+      </c>
+      <c r="M99" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="100" spans="8:20">
+      <c r="K100" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="101" spans="8:20">
+      <c r="K101" t="s">
+        <v>413</v>
+      </c>
+      <c r="M101" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="102" spans="8:20">
+      <c r="J102" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="103" spans="8:20">
+      <c r="J103" t="s">
+        <v>417</v>
+      </c>
+      <c r="M103" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="104" spans="8:20">
+      <c r="M104" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="105" spans="8:20">
+      <c r="J105" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="106" spans="8:20">
+      <c r="J106" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="107" spans="8:20">
+      <c r="J107" t="s">
+        <v>423</v>
+      </c>
+      <c r="L107" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="M107" s="40"/>
+      <c r="N107" s="40"/>
+      <c r="O107" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="P107" s="40"/>
+      <c r="Q107" s="40"/>
+      <c r="R107" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="S107" s="40"/>
+      <c r="T107" s="40"/>
+    </row>
+    <row r="108" spans="8:20">
+      <c r="L108" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+    </row>
+    <row r="109" spans="8:20">
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+    </row>
+    <row r="110" spans="8:20">
+      <c r="J110" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="111" spans="8:20">
+      <c r="K111" t="s">
+        <v>428</v>
+      </c>
+      <c r="N111" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="112" spans="8:20">
+      <c r="K112" t="s">
+        <v>429</v>
+      </c>
+      <c r="N112" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="113" spans="8:14">
+      <c r="K113" t="s">
+        <v>431</v>
+      </c>
+      <c r="N113" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="114" spans="8:14">
+      <c r="N114" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="115" spans="8:14">
+      <c r="J115" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="119" spans="8:14">
+      <c r="H119" s="31" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H101" t="s">
+    <row r="120" spans="8:14">
+      <c r="H120" s="31" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H102" t="s">
+    <row r="121" spans="8:14">
+      <c r="H121" s="31" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H103" t="s">
+      <c r="J121" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="8:14">
+      <c r="J122" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="123" spans="8:14">
+      <c r="J123" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="124" spans="8:14">
+      <c r="J124" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="127" spans="8:14">
+      <c r="H127" s="31" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H104" t="s">
+      <c r="J127" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="128" spans="8:14">
+      <c r="J128" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="129" spans="6:11">
+      <c r="J129" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="130" spans="6:11">
+      <c r="J130" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="132" spans="6:11">
+      <c r="H132" s="31" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H105" t="s">
+    <row r="133" spans="6:11">
+      <c r="H133" s="31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H106" t="s">
+    <row r="134" spans="6:11">
+      <c r="H134" s="31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H107" t="s">
+    <row r="135" spans="6:11">
+      <c r="H135" s="31" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F108" t="s">
+    <row r="136" spans="6:11">
+      <c r="H136" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="J136" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="137" spans="6:11">
+      <c r="J137" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="138" spans="6:11">
+      <c r="J138" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="139" spans="6:11">
+      <c r="K139" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="140" spans="6:11">
+      <c r="K140" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="141" spans="6:11">
+      <c r="K141" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="142" spans="6:11">
+      <c r="F142" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="113" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E113" s="29" t="s">
+    <row r="147" spans="5:15">
+      <c r="E147" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="F147" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="148" spans="5:15">
+      <c r="F148" t="s">
         <v>351</v>
       </c>
-      <c r="F113" t="s">
+    </row>
+    <row r="149" spans="5:15">
+      <c r="F149" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="114" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F114" t="s">
+    <row r="151" spans="5:15">
+      <c r="F151" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="115" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F115" t="s">
+    <row r="152" spans="5:15">
+      <c r="F152" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="117" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F117" t="s">
+    <row r="153" spans="5:15">
+      <c r="F153" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F118" t="s">
+    <row r="155" spans="5:15">
+      <c r="F155" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="119" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F119" t="s">
+    <row r="156" spans="5:15">
+      <c r="F156" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F121" t="s">
+    <row r="157" spans="5:15">
+      <c r="G157" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11"/>
+      <c r="N157" s="11"/>
+      <c r="O157" s="11"/>
+    </row>
+    <row r="158" spans="5:15">
+      <c r="H158" t="s">
+        <v>485</v>
+      </c>
+      <c r="J158" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="159" spans="5:15">
+      <c r="H159" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="160" spans="5:15">
+      <c r="H160" t="s">
+        <v>488</v>
+      </c>
+      <c r="J160" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="161" spans="6:15">
+      <c r="H161" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="166" spans="6:15">
+      <c r="F166" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="122" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F122" t="s">
+      <c r="G166" s="31" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="124" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F124" t="s">
+      <c r="H166" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="167" spans="6:15">
+      <c r="H167" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="168" spans="6:15">
+      <c r="J168" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="169" spans="6:15">
+      <c r="J169" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="170" spans="6:15">
+      <c r="G170" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="G124" s="31" t="s">
+      <c r="H170" t="s">
+        <v>366</v>
+      </c>
+      <c r="O170" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="171" spans="6:15">
+      <c r="H171" t="s">
+        <v>369</v>
+      </c>
+      <c r="O171" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="175" spans="6:15">
+      <c r="G175" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="H124" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="125" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H125" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="126" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J126" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="127" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J127" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="128" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="G128" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="H128" t="s">
-        <v>368</v>
-      </c>
-      <c r="O128" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="129" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="H129" t="s">
+      <c r="H175" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="176" spans="6:15">
+      <c r="H176" t="s">
         <v>371</v>
       </c>
-      <c r="O129" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="133" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G133" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="H133" t="s">
+      <c r="M176" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="134" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="H134" t="s">
+    <row r="178" spans="5:11">
+      <c r="G178" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="M134" t="s">
+      <c r="H178" s="31"/>
+      <c r="I178" s="31"/>
+      <c r="J178" s="31"/>
+      <c r="K178" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="136" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G136" s="31" t="s">
+    <row r="179" spans="5:11">
+      <c r="K179" t="s">
         <v>375</v>
       </c>
-      <c r="H136" s="31"/>
-      <c r="I136" s="31"/>
-      <c r="J136" s="31"/>
-      <c r="K136" t="s">
+    </row>
+    <row r="180" spans="5:11">
+      <c r="K180" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="137" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="K137" t="s">
+    <row r="181" spans="5:11">
+      <c r="K181" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="138" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="K138" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="139" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="K139" t="s">
-        <v>379</v>
+    <row r="183" spans="5:11">
+      <c r="E183" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="F183" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="184" spans="5:11">
+      <c r="F184" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="185" spans="5:11">
+      <c r="F185" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="186" spans="5:11">
+      <c r="G186" t="s">
+        <v>455</v>
+      </c>
+      <c r="H186" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="187" spans="5:11">
+      <c r="G187" t="s">
+        <v>456</v>
+      </c>
+      <c r="H187" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="188" spans="5:11">
+      <c r="G188" t="s">
+        <v>457</v>
+      </c>
+      <c r="H188" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="189" spans="5:11">
+      <c r="G189" t="s">
+        <v>458</v>
+      </c>
+      <c r="H189" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="190" spans="5:11">
+      <c r="G190" t="s">
+        <v>459</v>
+      </c>
+      <c r="H190" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="191" spans="5:11">
+      <c r="G191" t="s">
+        <v>460</v>
+      </c>
+      <c r="H191" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="193" spans="6:9">
+      <c r="F193" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="G193" t="s">
+        <v>465</v>
+      </c>
+      <c r="I193" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="194" spans="6:9">
+      <c r="G194" t="s">
+        <v>466</v>
+      </c>
+      <c r="I194" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="195" spans="6:9">
+      <c r="G195" t="s">
+        <v>467</v>
+      </c>
+      <c r="I195" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="196" spans="6:9">
+      <c r="G196" t="s">
+        <v>468</v>
+      </c>
+      <c r="I196" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="197" spans="6:9">
+      <c r="F197" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="G197" t="s">
+        <v>475</v>
+      </c>
+      <c r="I197" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="198" spans="6:9">
+      <c r="G198" t="s">
+        <v>476</v>
+      </c>
+      <c r="I198" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="199" spans="6:9">
+      <c r="G199" t="s">
+        <v>477</v>
+      </c>
+      <c r="I199" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="200" spans="6:9">
+      <c r="G200" t="s">
+        <v>478</v>
+      </c>
+      <c r="I200" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="O107:Q107"/>
+    <mergeCell ref="R107:T107"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3635,48 +8268,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91EA196-23E6-4F65-B3E8-BE235851700D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="B21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="B23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="10" t="s">
         <v>43</v>
       </c>
@@ -3685,17 +8318,18 @@
       </c>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="B29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="B30" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3703,521 +8337,522 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBB855-2665-4FC7-B0F7-F614BC4905D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="36" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
       <c r="D1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G3" t="s">
         <v>398</v>
       </c>
-      <c r="F3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="F4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="F5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="F6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18.75">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="18.75">
       <c r="A10" s="36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
       <c r="D10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="G11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="G12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="J13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="J14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="J15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="J16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="G19" t="s">
+        <v>287</v>
+      </c>
+      <c r="J19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="J20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="J21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="J22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10">
+      <c r="D24" t="s">
+        <v>295</v>
+      </c>
+      <c r="G24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10">
+      <c r="G25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10">
+      <c r="D27" t="s">
+        <v>294</v>
+      </c>
+      <c r="G27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10">
+      <c r="D29" t="s">
         <v>299</v>
       </c>
-      <c r="G10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>282</v>
-      </c>
-      <c r="J12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>298</v>
-      </c>
-      <c r="G18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>289</v>
-      </c>
-      <c r="J19" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>297</v>
-      </c>
-      <c r="G24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>296</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="G29" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="31" spans="4:10">
+      <c r="D31" t="s">
         <v>301</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G31" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="32" spans="4:10">
+      <c r="G32" t="s">
         <v>303</v>
       </c>
-      <c r="G31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" ht="18.75">
       <c r="A34" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="F35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="F36" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+    <row r="37" spans="1:10">
+      <c r="D37" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
+      <c r="F37" s="37" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+      <c r="H37" t="s">
         <v>309</v>
       </c>
-      <c r="F37" s="37" t="s">
+    </row>
+    <row r="38" spans="1:10">
+      <c r="F38" t="s">
         <v>310</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
+    <row r="40" spans="1:10">
+      <c r="F40" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="H38" t="s">
+    </row>
+    <row r="41" spans="1:10">
+      <c r="G41" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F40" s="11" t="s">
+    <row r="42" spans="1:10">
+      <c r="G42" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
+    <row r="43" spans="1:10">
+      <c r="G43" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
+    <row r="44" spans="1:10">
+      <c r="F44" s="11" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
+    <row r="45" spans="1:10">
+      <c r="F45" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F44" s="11" t="s">
+    <row r="46" spans="1:10">
+      <c r="F46" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
+    <row r="47" spans="1:10">
+      <c r="H47" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
+      <c r="J47" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="H48" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H47" t="s">
+      <c r="J48" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="H49" t="s">
         <v>321</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J49" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H48" t="s">
+    <row r="50" spans="1:10">
+      <c r="H50" t="s">
         <v>322</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J50" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H49" t="s">
-        <v>323</v>
-      </c>
-      <c r="J49" t="s">
+    <row r="51" spans="1:10">
+      <c r="F51" s="11" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H50" t="s">
-        <v>324</v>
-      </c>
-      <c r="J50" t="s">
+    <row r="52" spans="1:10">
+      <c r="G52" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F51" s="11" t="s">
+    <row r="53" spans="1:10">
+      <c r="G53" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G52" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G53" t="s">
+    <row r="55" spans="1:10" ht="18.75">
+      <c r="A55" s="36" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="36" t="s">
-        <v>333</v>
       </c>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="E55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="E56" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="E57" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
+    <row r="58" spans="1:10">
+      <c r="F58" s="38" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
+    <row r="59" spans="1:10">
+      <c r="E59" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F58" s="38" t="s">
+    <row r="60" spans="1:10">
+      <c r="E60" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E59" t="s">
+    <row r="61" spans="1:10">
+      <c r="E61" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E60" t="s">
+    <row r="62" spans="1:10">
+      <c r="E62" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
+      <c r="H62" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E62" t="s">
+    <row r="63" spans="1:10">
+      <c r="H63" t="s">
         <v>341</v>
       </c>
-      <c r="H62" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H63" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7">
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7">
       <c r="F67">
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7">
       <c r="F68">
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7">
       <c r="F69">
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7">
       <c r="F70">
         <v>5</v>
       </c>
       <c r="G70" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18.75">
       <c r="A82" s="36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
       <c r="D82" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E82" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="E83" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="45">
+      <c r="D85" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="E85" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="E86" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="E87" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="E88" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="E89" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="E90" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="E91" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="E92" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="D94" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="E82" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E83" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D85" s="39" t="s">
+      <c r="E94" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="D96" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="E85" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E86" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E87" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E88" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E89" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E90" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E91" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E92" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D94" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="E94" t="s">
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>394</v>
+      </c>
+      <c r="D99" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D96" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>396</v>
-      </c>
-      <c r="D99" t="s">
-        <v>397</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="10"/>
   <hyperlinks>
-    <hyperlink ref="F37" r:id="rId1" xr:uid="{2BC75A22-B7A7-4336-8636-C68AC72292B1}"/>
+    <hyperlink ref="F37" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4226,19 +8861,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347E0A37-59EE-4ED6-9E17-493E5F170C50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4253,7 +8888,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="21">
       <c r="A2" s="17" t="s">
         <v>53</v>
       </c>
@@ -4278,7 +8913,7 @@
       <c r="S2" s="24"/>
       <c r="T2" s="25"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="19" t="s">
         <v>62</v>
       </c>
@@ -4295,7 +8930,7 @@
       <c r="L3" s="12"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -4318,7 +8953,7 @@
       </c>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -4346,7 +8981,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -4374,7 +9009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -4393,7 +9028,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -4416,7 +9051,7 @@
       </c>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="19" t="s">
         <v>60</v>
       </c>
@@ -4436,7 +9071,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -4455,7 +9090,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -4478,7 +9113,7 @@
       </c>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="19" t="s">
         <v>61</v>
       </c>
@@ -4495,7 +9130,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="20">
         <v>1</v>
       </c>
@@ -4514,7 +9149,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="21">
       <c r="A14" s="20">
         <v>2</v>
       </c>
@@ -4539,7 +9174,7 @@
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="20">
         <v>3</v>
       </c>
@@ -4558,7 +9193,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="19"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4579,7 +9214,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="21">
       <c r="A17" s="17" t="s">
         <v>68</v>
       </c>
@@ -4601,7 +9236,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="19" t="s">
         <v>70</v>
       </c>
@@ -4624,7 +9259,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="19" t="s">
         <v>71</v>
       </c>
@@ -4644,7 +9279,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="20">
         <v>1</v>
       </c>
@@ -4666,7 +9301,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="20">
         <v>2</v>
       </c>
@@ -4685,7 +9320,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="20">
         <v>3</v>
       </c>
@@ -4704,7 +9339,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="20">
         <v>4</v>
       </c>
@@ -4723,7 +9358,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="20">
         <v>5</v>
       </c>
@@ -4742,7 +9377,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="19" t="s">
         <v>60</v>
       </c>
@@ -4759,7 +9394,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="20">
         <v>1</v>
       </c>
@@ -4778,7 +9413,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="20">
         <v>2</v>
       </c>
@@ -4797,7 +9432,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="20">
         <v>3</v>
       </c>
@@ -4816,7 +9451,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="19" t="s">
         <v>61</v>
       </c>
@@ -4833,7 +9468,7 @@
       <c r="L29" s="12"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="20">
         <v>1</v>
       </c>
@@ -4852,7 +9487,7 @@
       <c r="L30" s="12"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="20">
         <v>2</v>
       </c>
@@ -4871,7 +9506,7 @@
       <c r="L31" s="12"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="19"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -4886,7 +9521,7 @@
       <c r="L32" s="12"/>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -4902,22 +9537,23 @@
       <c r="M33" s="23"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A272810-FAA8-40BC-A59C-D91553439282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4932,7 +9568,7 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="26.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="32"/>
@@ -4949,7 +9585,7 @@
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="31"/>
       <c r="B3" s="33" t="s">
         <v>242</v>
@@ -4966,7 +9602,7 @@
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="34" t="s">
         <v>243</v>
       </c>
@@ -4985,7 +9621,7 @@
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="34" t="s">
         <v>245</v>
       </c>
@@ -5004,7 +9640,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -5019,7 +9655,7 @@
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="33" t="s">
         <v>247</v>
       </c>
@@ -5036,7 +9672,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="33" t="s">
         <v>248</v>
       </c>
@@ -5053,7 +9689,7 @@
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="33" t="s">
         <v>249</v>
       </c>
@@ -5070,7 +9706,7 @@
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -5085,7 +9721,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="33" t="s">
         <v>251</v>
       </c>
@@ -5102,7 +9738,7 @@
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -5119,7 +9755,7 @@
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -5136,7 +9772,7 @@
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -5151,7 +9787,7 @@
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -5166,7 +9802,7 @@
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -5181,7 +9817,7 @@
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -5197,6 +9833,7 @@
       <c r="M17" s="31"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
